--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:E303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,466 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
+          <t>III</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>BORGHETTO DI VARA</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
           <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>011007</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>BRUGNATO</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>011009</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>CARRO</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>ROCCHETTA DI VARA</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>011029</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>VARESE LIGURE</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>SESTA GODANO</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>011010</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>CARRODANO</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>MAISSANA</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>ZIGNAGO</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>LEVANTO</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>MONTEROSSO AL MARE</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>VERNAZZA</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>011005</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>BONASSOLA</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>FRAMURA</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>011012</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>DEIVA MARINA</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>PIGNONE</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>011024</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>RIOMAGGIORE</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>I</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>I, LIM</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>BASCAPÈ</t>
+          <t>BASCAP�</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RICCÒ DEL GOLFO DI SPEZIA</t>
+          <t>RICC� DEL GOLFO DI SPEZIA</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II, I</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>II, I</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>I, LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>II, I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>II, I</t>
+          <t>II</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I, II</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8610,7 +8610,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,49 +760,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>098024</t>
+          <t>034031</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CORTE PALASIO</t>
+          <t>SALA BAGANZA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>034031</t>
+          <t>015188</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SALA BAGANZA</t>
+          <t>ROSATE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,61 +814,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>015188</t>
+          <t>034036</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROSATE</t>
+          <t>SORAGNA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>034036</t>
+          <t>006163</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SORAGNA</t>
+          <t>SOLERO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>006163</t>
+          <t>005103</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -878,24 +878,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SOLERO</t>
+          <t>SCURZOLENGO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>098052</t>
+          <t>015204</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -905,39 +905,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SECUGNAGO</t>
+          <t>SEDRIANO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>005103</t>
+          <t>098051</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SCURZOLENGO</t>
+          <t>SANTO STEFANO LODIGIANO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -949,49 +949,49 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>015204</t>
+          <t>003141</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SEDRIANO</t>
+          <t>SOZZAGO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>098051</t>
+          <t>005115</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SANTO STEFANO LODIGIANO</t>
+          <t>VIARIGI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1003,7 +1003,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>015222</t>
+          <t>098054</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1013,51 +1013,51 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRIBIANO</t>
+          <t>SOMAGLIA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>003141</t>
+          <t>033040</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOZZAGO</t>
+          <t>SAN GIORGIO PIACENTINO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>005115</t>
+          <t>006153</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1067,24 +1067,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VIARIGI</t>
+          <t>SAN GIORGIO MONFERRATO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>098054</t>
+          <t>098060</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SOMAGLIA</t>
+          <t>VILLANOVA DEL SILLARO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,61 +1111,61 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>033040</t>
+          <t>098049</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAN GIORGIO PIACENTINO</t>
+          <t>SAN ROCCO AL PORTO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>006153</t>
+          <t>018160</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SAN GIORGIO MONFERRATO</t>
+          <t>TORREVECCHIA PIA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>034044</t>
+          <t>033035</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1175,24 +1175,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VALMOZZOLA</t>
+          <t>PODENZANO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>098060</t>
+          <t>015226</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VILLANOVA DEL SILLARO</t>
+          <t>TURBIGO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1219,34 +1219,34 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>098049</t>
+          <t>006177</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SAN ROCCO AL PORTO</t>
+          <t>VALENZA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>018160</t>
+          <t>098046</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TORREVECCHIA PIA</t>
+          <t>SALERANO SUL LAMBRO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1273,22 +1273,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>045013</t>
+          <t>006185</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PODENZANA</t>
+          <t>VILLANOVA MONFERRATO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1300,34 +1300,34 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>033035</t>
+          <t>005099</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PODENZANO</t>
+          <t>SAN MARTINO ALFIERI</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>015226</t>
+          <t>015229</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TURBIGO</t>
+          <t>VANZAGO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1354,34 +1354,34 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>006177</t>
+          <t>015176</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VALENZA</t>
+          <t>POGLIANO MILANESE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>098046</t>
+          <t>098047</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SALERANO SUL LAMBRO</t>
+          <t>SAN FIORANO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1408,34 +1408,34 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>006185</t>
+          <t>015179</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VILLANOVA MONFERRATO</t>
+          <t>PREGNANA MILANESE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>005099</t>
+          <t>006149</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1445,24 +1445,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SAN MARTINO ALFIERI</t>
+          <t>ROSIGNANO MONFERRATO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>015167</t>
+          <t>015192</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1477,19 +1477,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PANTIGLIATE</t>
+          <t>SAN DONATO MILANESE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>015229</t>
+          <t>098042</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VANZAGO</t>
+          <t>ORIO LITTA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>015176</t>
+          <t>015183</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1531,46 +1531,46 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>POGLIANO MILANESE</t>
+          <t>ROBECCHETTO CON INDUNO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>098047</t>
+          <t>006129</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SAN FIORANO</t>
+          <t>PIETRA MARAZZI</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>015179</t>
+          <t>015130</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1585,34 +1585,34 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PREGNANA MILANESE</t>
+          <t>MAGENTA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>006149</t>
+          <t>033037</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ROSIGNANO MONFERRATO</t>
+          <t>PONTENURE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1624,49 +1624,49 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>015192</t>
+          <t>005076</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SAN DONATO MILANESE</t>
+          <t>MONTEGROSSO D'ASTI</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>098042</t>
+          <t>006141</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ORIO LITTA</t>
+          <t>QUARGNENTO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1678,34 +1678,34 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>015183</t>
+          <t>033032</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ROBECCHETTO CON INDUNO</t>
+          <t>PIACENZA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I, II</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>006129</t>
+          <t>002093</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1715,24 +1715,24 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PIETRA MARAZZI</t>
+          <t>PEZZANA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>015130</t>
+          <t>015248</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1747,88 +1747,88 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MAGENTA</t>
+          <t>VILLA CORTESE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>033037</t>
+          <t>015171</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PONTENURE</t>
+          <t>PESCHIERA BORROMEO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>098048</t>
+          <t>006131</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SAN MARTINO IN STRADA</t>
+          <t>POMARO MONFERRATO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>011026</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SANTO STEFANO DI MAGRA</t>
+          <t>OVIGLIO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1840,22 +1840,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>005076</t>
+          <t>015134</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MONTEGROSSO D'ASTI</t>
+          <t>MARCALLO CON CASONE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1867,22 +1867,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>006141</t>
+          <t>098055</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>QUARGNENTO</t>
+          <t>SORDIO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1894,61 +1894,61 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>033032</t>
+          <t>015155</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PIACENZA</t>
+          <t>NOSATE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>I, II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>015169</t>
+          <t>005050</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PAULLO</t>
+          <t>COSTIGLIOLE D'ASTI</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>002093</t>
+          <t>005048</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1958,24 +1958,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PEZZANA</t>
+          <t>CORTIGLIONE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>015248</t>
+          <t>098023</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VILLA CORTESE</t>
+          <t>CORNOVECCHIO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2002,22 +2002,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>015171</t>
+          <t>005034</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PESCHIERA BORROMEO</t>
+          <t>CELLE ENOMONDO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2029,34 +2029,34 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>006131</t>
+          <t>015071</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>POMARO MONFERRATO</t>
+          <t>CERRO AL LAMBRO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>003069</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2066,39 +2066,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>OVIGLIO</t>
+          <t>GARBAGNA NOVARESE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>015134</t>
+          <t>006056</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MARCALLO CON CASONE</t>
+          <t>CELLA MONTE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2110,61 +2110,61 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>098055</t>
+          <t>006011</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SORDIO</t>
+          <t>BALZOLA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>015155</t>
+          <t>034013</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NOSATE</t>
+          <t>FELINO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>005050</t>
+          <t>006068</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2174,78 +2174,78 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>COSTIGLIOLE D'ASTI</t>
+          <t>FELIZZANO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>098017</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CAVENAGO D'ADDA</t>
+          <t>ALTAVILLA MONFERRATO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>005048</t>
+          <t>015082</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CORTIGLIONE</t>
+          <t>COLTURANO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>098023</t>
+          <t>015101</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CORNOVECCHIO</t>
+          <t>DRESANO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2272,34 +2272,34 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>005034</t>
+          <t>015113</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CELLE ENOMONDO</t>
+          <t>INVERUNO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>015071</t>
+          <t>015097</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CERRO AL LAMBRO</t>
+          <t>CUSAGO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>003069</t>
+          <t>006073</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2336,120 +2336,120 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>GARBAGNA NOVARESE</t>
+          <t>FRASSINETO PO</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>006056</t>
+          <t>015046</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CELLA MONTE</t>
+          <t>CANEGRATE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>006011</t>
+          <t>015146</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>BALZOLA</t>
+          <t>MILANO</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>034013</t>
+          <t>015154</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FELINO</t>
+          <t>NERVIANO</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>006068</t>
+          <t>018093</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FELIZZANO</t>
+          <t>MIRADOLO TERME</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2461,34 +2461,34 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>015015</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ALTAVILLA MONFERRATO</t>
+          <t>BASIGLIO</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>015082</t>
+          <t>098005</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2498,12 +2498,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>COLTURANO</t>
+          <t>BORGO SAN GIOVANNI</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2515,22 +2515,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>015101</t>
+          <t>005022</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>DRESANO</t>
+          <t>CASTAGNOLE DELLE LANZE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2542,7 +2542,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>015113</t>
+          <t>098011</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2552,24 +2552,24 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>INVERUNO</t>
+          <t>CASELLE LANDI</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>015097</t>
+          <t>015140</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CUSAGO</t>
+          <t>MELEGNANO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>006073</t>
+          <t>005006</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2606,24 +2606,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FRASSINETO PO</t>
+          <t>AZZANO D'ASTI</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>015046</t>
+          <t>015038</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CANEGRATE</t>
+          <t>BUSCATE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2650,7 +2650,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>015146</t>
+          <t>015005</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MILANO</t>
+          <t>ALBAIRATE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2677,7 +2677,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>015154</t>
+          <t>098029</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NERVIANO</t>
+          <t>GUARDAMIGLIO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2704,22 +2704,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>018093</t>
+          <t>006023</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MIRADOLO TERME</t>
+          <t>BOZZOLE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2731,22 +2731,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>015015</t>
+          <t>006020</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>BASIGLIO</t>
+          <t>BORGO SAN MARTINO</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>098005</t>
+          <t>018009</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2768,12 +2768,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BORGO SAN GIOVANNI</t>
+          <t>BASCAP�</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2785,22 +2785,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>045001</t>
+          <t>015050</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>AULLA</t>
+          <t>CARPIANO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2812,22 +2812,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>005022</t>
+          <t>015011</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CASTAGNOLE DELLE LANZE</t>
+          <t>ASSAGO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2839,22 +2839,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>098011</t>
+          <t>005003</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CASELLE LANDI</t>
+          <t>ANTIGNANO</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2866,49 +2866,49 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>015140</t>
+          <t>006060</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>MELEGNANO</t>
+          <t>CONIOLO</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>005006</t>
+          <t>098030</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>AZZANO D'ASTI</t>
+          <t>LIVRAGA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2920,22 +2920,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>011004</t>
+          <t>015144</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>BOLANO</t>
+          <t>MESERO</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2947,49 +2947,49 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>015038</t>
+          <t>005066</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>BUSCATE</t>
+          <t>MOMBERCELLI</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>015005</t>
+          <t>002104</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ALBAIRATE</t>
+          <t>PRAROLO</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3001,7 +3001,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>098029</t>
+          <t>015168</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>GUARDAMIGLIO</t>
+          <t>PARABIAGO</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3028,22 +3028,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>006023</t>
+          <t>034025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>BOZZOLE</t>
+          <t>NOCETO</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3055,34 +3055,34 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>006020</t>
+          <t>098038</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>BORGO SAN MARTINO</t>
+          <t>MELETI</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>018009</t>
+          <t>098043</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>BASCAP�</t>
+          <t>OSPEDALETTO LODIGIANO</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3109,7 +3109,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>015050</t>
+          <t>018077</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3119,12 +3119,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CARPIANO</t>
+          <t>INVERNO E MONTELEONE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>015011</t>
+          <t>015125</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3151,34 +3151,34 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ASSAGO</t>
+          <t>LOCATE DI TRIULZI</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>005003</t>
+          <t>015164</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ANTIGNANO</t>
+          <t>OSSONA</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3190,61 +3190,61 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>006060</t>
+          <t>098037</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CONIOLO</t>
+          <t>MASSALENGO</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>098030</t>
+          <t>006105</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LIVRAGA</t>
+          <t>MONTECASTELLO</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>015144</t>
+          <t>015002</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>MESERO</t>
+          <t>ABBIATEGRASSO</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3271,7 +3271,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>005066</t>
+          <t>005096</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>MOMBERCELLI</t>
+          <t>ROCCHETTA TANARO</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>002104</t>
+          <t>005058</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3308,24 +3308,24 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PRAROLO</t>
+          <t>INCISA SCAPACCINO</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>098040</t>
+          <t>015024</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3335,24 +3335,24 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>MONTANASO LOMBARDO</t>
+          <t>BINASCO</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>015168</t>
+          <t>018079</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3362,12 +3362,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PARABIAGO</t>
+          <t>LANGOSCO</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3379,22 +3379,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>034025</t>
+          <t>005008</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NOCETO</t>
+          <t>BELVEGLIO</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3406,22 +3406,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>098038</t>
+          <t>033008</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>MELETI</t>
+          <t>CALENDASCO</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3433,7 +3433,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>098043</t>
+          <t>098045</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>OSPEDALETTO LODIGIANO</t>
+          <t>PIEVE FISSIRAGA</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3460,34 +3460,34 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>098034</t>
+          <t>006128</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MAIRAGO</t>
+          <t>PECETTO DI VALENZA</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>018077</t>
+          <t>018078</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>INVERNO E MONTELEONE</t>
+          <t>LANDRIANO</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3514,7 +3514,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>015125</t>
+          <t>018099</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3524,51 +3524,51 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LOCATE DI TRIULZI</t>
+          <t>MONTICELLI PAVESE</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>015164</t>
+          <t>033002</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>OSSONA</t>
+          <t>ALSENO</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>098037</t>
+          <t>015007</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>MASSALENGO</t>
+          <t>ARCONATE</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3595,22 +3595,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>045009</t>
+          <t>018022</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LICCIANA NARDI</t>
+          <t>BREME</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3622,22 +3622,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>006105</t>
+          <t>033007</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>MONTECASTELLO</t>
+          <t>CADEO</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3649,22 +3649,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>015002</t>
+          <t>034014</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ABBIATEGRASSO</t>
+          <t>FIDENZA</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3676,22 +3676,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>005096</t>
+          <t>034017</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ROCCHETTA TANARO</t>
+          <t>FORNOVO DI TARO</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3703,61 +3703,61 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>005058</t>
+          <t>033018</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>INCISA SCAPACCINO</t>
+          <t>CORTEMAGGIORE</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>011015</t>
+          <t>015099</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>DAIRAGO</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>015024</t>
+          <t>098044</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3767,24 +3767,24 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>BINASCO</t>
+          <t>OSSAGO LODIGIANO</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>018079</t>
+          <t>018107</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LANGOSCO</t>
+          <t>PALESTRO</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3811,22 +3811,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>011003</t>
+          <t>015173</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>BEVERINO</t>
+          <t>PIEVE EMANUELE</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>005008</t>
+          <t>005028</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>BELVEGLIO</t>
+          <t>CASTELLO DI ANNONE</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3865,22 +3865,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>045002</t>
+          <t>015019</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>BAGNONE</t>
+          <t>BERNATE TICINO</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3892,22 +3892,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>033008</t>
+          <t>098026</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>CALENDASCO</t>
+          <t>FOMBIO</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3919,61 +3919,61 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>011008</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CALICE AL CORNOVIGLIO</t>
+          <t>ASTI</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>098003</t>
+          <t>034016</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>BOFFALORA D'ADDA</t>
+          <t>FONTEVIVO</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>098045</t>
+          <t>015115</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3983,51 +3983,51 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>PIEVE FISSIRAGA</t>
+          <t>LACCHIARELLA</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>006128</t>
+          <t>015062</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>PECETTO DI VALENZA</t>
+          <t>CASTANO PRIMO</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>018078</t>
+          <t>015078</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4037,24 +4037,24 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LANDRIANO</t>
+          <t>CISLIANO</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>018099</t>
+          <t>015074</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4064,12 +4064,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>MONTICELLI PAVESE</t>
+          <t>CESANO BOSCONE</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4081,34 +4081,34 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>033002</t>
+          <t>005059</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ALSENO</t>
+          <t>ISOLA D'ASTI</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>015007</t>
+          <t>015118</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ARCONATE</t>
+          <t>LEGNANO</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4135,22 +4135,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>018022</t>
+          <t>033012</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>BREME</t>
+          <t>CASTELL'ARQUATO</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>033007</t>
+          <t>034007</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4172,39 +4172,39 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>CADEO</t>
+          <t>BUSSETO</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>034014</t>
+          <t>006051</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>FIDENZA</t>
+          <t>CASTELLETTO MONFERRATO</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4216,34 +4216,34 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>034017</t>
+          <t>098008</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>FORNOVO DI TARO</t>
+          <t>CASALETTO LODIGIANO</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>033018</t>
+          <t>034027</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CORTEMAGGIORE</t>
+          <t>PARMA</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4270,22 +4270,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>015099</t>
+          <t>033041</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>DAIRAGO</t>
+          <t>SAN PIETRO IN CERRO</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4297,49 +4297,49 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>098044</t>
+          <t>006003</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>OSSAGO LODIGIANO</t>
+          <t>ALESSANDRIA</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>018107</t>
+          <t>005077</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>PALESTRO</t>
+          <t>MONTEMAGNO MONFERRATO</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4351,7 +4351,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>015173</t>
+          <t>018087</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4361,66 +4361,66 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>PIEVE EMANUELE</t>
+          <t>MARZANO</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>005028</t>
+          <t>015103</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CASTELLO DI ANNONE</t>
+          <t>GAGGIANO</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>015019</t>
+          <t>005074</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>BERNATE TICINO</t>
+          <t>MONTALDO SCARAMPI</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4432,49 +4432,49 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>098010</t>
+          <t>034004</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CASALPUSTERLENGO</t>
+          <t>BERCETO</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>011013</t>
+          <t>015026</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>FOLLO</t>
+          <t>BOFFALORA SOPRA TICINO</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4486,7 +4486,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>098026</t>
+          <t>015010</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>FOMBIO</t>
+          <t>ARLUNO</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4513,7 +4513,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>098035</t>
+          <t>098022</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4528,19 +4528,19 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>MALEO</t>
+          <t>CORNO GIOVINE</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>003077</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4550,12 +4550,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ASTI</t>
+          <t>GRANOZZO CON MONTICELLO</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4567,22 +4567,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>034016</t>
+          <t>098032</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>FONTEVIVO</t>
+          <t>LODI VECCHIO</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4594,115 +4594,115 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>045006</t>
+          <t>018052</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>FILATTIERA</t>
+          <t>CONFIENZA</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>015115</t>
+          <t>005071</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LACCHIARELLA</t>
+          <t>MONGARDINO</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>015062</t>
+          <t>006091</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CASTANO PRIMO</t>
+          <t>MASIO</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>015078</t>
+          <t>006109</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>CISLIANO</t>
+          <t>MORANO SUL PO</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>015074</t>
+          <t>015158</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4717,19 +4717,19 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>CESANO BOSCONE</t>
+          <t>NOVIGLIO</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>005059</t>
+          <t>006094</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4739,39 +4739,39 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ISOLA D'ASTI</t>
+          <t>MIRABELLO MONFERRATO</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>015118</t>
+          <t>003106</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LEGNANO</t>
+          <t>NOVARA</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4783,7 +4783,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>033012</t>
+          <t>033021</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>CASTELL'ARQUATO</t>
+          <t>FIORENZUOLA D'ARDA</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4810,22 +4810,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>034007</t>
+          <t>098004</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>BUSSETO</t>
+          <t>BORGHETTO LODIGIANO</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4837,142 +4837,142 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>006051</t>
+          <t>015041</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CASTELLETTO MONFERRATO</t>
+          <t>BUSTO GAROLFO</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>098008</t>
+          <t>034008</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>CASALETTO LODIGIANO</t>
+          <t>CALESTANO</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>034027</t>
+          <t>006047</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PARMA</t>
+          <t>CASTELLAZZO BORMIDA</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>033041</t>
+          <t>006026</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SAN PIETRO IN CERRO</t>
+          <t>CAMAGNA MONFERRATO</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>011023</t>
+          <t>098006</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RICC� DEL GOLFO DI SPEZIA</t>
+          <t>BREMBIO</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>006003</t>
+          <t>006076</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4987,19 +4987,19 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ALESSANDRIA</t>
+          <t>FUBINE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>005077</t>
+          <t>006072</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5009,39 +5009,39 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>MONTEMAGNO MONFERRATO</t>
+          <t>FRASSINELLO MONFERRATO</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>018087</t>
+          <t>033010</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>MARZANO</t>
+          <t>CAORSO</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5053,22 +5053,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>015103</t>
+          <t>005023</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>GAGGIANO</t>
+          <t>CASTAGNOLE MONFERRATO</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5080,49 +5080,49 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>005074</t>
+          <t>033003</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>MONTALDO SCARAMPI</t>
+          <t>BESENZONE</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>034004</t>
+          <t>015159</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>BERCETO</t>
+          <t>OPERA</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5134,22 +5134,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>015026</t>
+          <t>006115</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>BOFFALORA SOPRA TICINO</t>
+          <t>OCCIMIANO</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5161,22 +5161,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>015010</t>
+          <t>034015</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ARLUNO</t>
+          <t>FONTANELLATO</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5188,49 +5188,49 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>098022</t>
+          <t>003049</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>CORNO GIOVINE</t>
+          <t>CERANO</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>003077</t>
+          <t>098015</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>GRANOZZO CON MONTICELLO</t>
+          <t>CASTIRAGA VIDARDO</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5242,34 +5242,34 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>098031</t>
+          <t>002030</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>LODI</t>
+          <t>CARESANA</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>098032</t>
+          <t>015085</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>LODI VECCHIO</t>
+          <t>CORBETTA</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5296,7 +5296,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>018052</t>
+          <t>015195</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>CONFIENZA</t>
+          <t>SAN GIULIANO MILANESE</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5323,22 +5323,22 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>005071</t>
+          <t>098053</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>MONGARDINO</t>
+          <t>SENNA LODIGIANA</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5350,22 +5350,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>006091</t>
+          <t>015189</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>MASIO</t>
+          <t>ROZZANO</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5377,7 +5377,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>006109</t>
+          <t>006123</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>MORANO SUL PO</t>
+          <t>OZZANO MONFERRATO</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5404,49 +5404,49 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>045012</t>
+          <t>018157</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>MULAZZO</t>
+          <t>TORRE D'ARESE</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>015158</t>
+          <t>034038</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>NOVIGLIO</t>
+          <t>TERENZO</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>098041</t>
+          <t>098056</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5473,61 +5473,61 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>MULAZZANO</t>
+          <t>TAVAZZANO CON VILLAVESCO</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>098002</t>
+          <t>006178</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>BERTONICO</t>
+          <t>VALMACCA</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>006094</t>
+          <t>018150</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>MIRABELLO MONFERRATO</t>
+          <t>SIZIANO</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5539,7 +5539,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>003106</t>
+          <t>006179</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5549,51 +5549,51 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>NOVARA</t>
+          <t>VIGNALE MONFERRATO</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>033021</t>
+          <t>018130</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>FIORENZUOLA D'ARDA</t>
+          <t>ROSASCO</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>098004</t>
+          <t>015201</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>BORGHETTO LODIGIANO</t>
+          <t>SAN VITTORE OLONA</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5620,22 +5620,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>015041</t>
+          <t>005087</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>BUSTO GAROLFO</t>
+          <t>PORTACOMARO</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5647,22 +5647,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>034008</t>
+          <t>015184</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>CALESTANO</t>
+          <t>ROBECCO SUL NAVIGLIO</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5674,61 +5674,61 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>006047</t>
+          <t>098050</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>CASTELLAZZO BORMIDA</t>
+          <t>SANT'ANGELO LODIGIANO</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>006026</t>
+          <t>015202</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>CAMAGNA MONFERRATO</t>
+          <t>SAN ZENONE AL LAMBRO</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>098006</t>
+          <t>015247</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5738,24 +5738,24 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>BREMBIO</t>
+          <t>ZIBIDO SAN GIACOMO</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>003040</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5765,24 +5765,24 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>CASALINO</t>
+          <t>CASALE MONFERRATO</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>006076</t>
+          <t>006142</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5797,46 +5797,46 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>FUBINE</t>
+          <t>QUATTORDIO</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>006072</t>
+          <t>015191</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>FRASSINELLO MONFERRATO</t>
+          <t>SAN COLOMBANO AL LAMBRO</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>033010</t>
+          <t>034035</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5846,39 +5846,39 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>CAORSO</t>
+          <t>SOLIGNANO</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>005023</t>
+          <t>098059</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>CASTAGNOLE MONFERRATO</t>
+          <t>VALERA FRATTA</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5890,22 +5890,22 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>033003</t>
+          <t>015220</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>BESENZONE</t>
+          <t>TREZZANO SUL NAVIGLIO</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5917,7 +5917,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>034006</t>
+          <t>034009</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>BORGO VAL DI TARO</t>
+          <t>COLLECCHIO</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5944,7 +5944,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>015159</t>
+          <t>015211</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5959,61 +5959,61 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>OPERA</t>
+          <t>SETTIMO MILANESE</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>006115</t>
+          <t>015036</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>OCCIMIANO</t>
+          <t>BUCCINASCO</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>034015</t>
+          <t>015012</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>FONTANELLATO</t>
+          <t>BAREGGIO</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6025,22 +6025,22 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>003049</t>
+          <t>033039</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>CERANO</t>
+          <t>ROTTOFRENO</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>098015</t>
+          <t>018123</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6062,12 +6062,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>CASTIRAGA VIDARDO</t>
+          <t>ROBBIO</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6079,7 +6079,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>002030</t>
+          <t>003149</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6089,24 +6089,24 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>CARESANA</t>
+          <t>TRECATE</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>015085</t>
+          <t>018180</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6116,93 +6116,93 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>CORBETTA</t>
+          <t>VILLANTERIO</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>015195</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>SAN GIULIANO MILANESE</t>
+          <t>SAN SALVATORE MONFERRATO</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>098053</t>
+          <t>003131</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>SENNA LODIGIANA</t>
+          <t>ROMENTINO</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>015189</t>
+          <t>034045</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>ROZZANO</t>
+          <t>VARANO DE' MELEGARI</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6214,7 +6214,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>006123</t>
+          <t>005090</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6224,24 +6224,24 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>OZZANO MONFERRATO</t>
+          <t>REVIGLIASCO D'ASTI</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>018157</t>
+          <t>018176</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6256,46 +6256,46 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>TORRE D'ARESE</t>
+          <t>VIDIGULFO</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>034038</t>
+          <t>018048</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>TERENZO</t>
+          <t>CHIGNOLO PO</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>098056</t>
+          <t>098021</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>TAVAZZANO CON VILLAVESCO</t>
+          <t>CORNEGLIANO LAUDENSE</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6322,34 +6322,34 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>006178</t>
+          <t>015087</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>VALMACCA</t>
+          <t>CORNAREDO</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>018150</t>
+          <t>015093</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -6359,66 +6359,66 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>SIZIANO</t>
+          <t>CORSICO</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>006179</t>
+          <t>015061</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>VIGNALE MONFERRATO</t>
+          <t>CASSINETTA DI LUGAGNANO</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>045016</t>
+          <t>033011</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>VILLAFRANCA IN LUNIGIANA</t>
+          <t>CARPANETO PIACENTINO</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6430,7 +6430,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>018130</t>
+          <t>098028</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -6440,12 +6440,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>ROSASCO</t>
+          <t>GRAFFIGNANA</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6457,7 +6457,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>015201</t>
+          <t>018027</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -6467,12 +6467,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>SAN VITTORE OLONA</t>
+          <t>CANDIA LOMELLINA</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6484,22 +6484,22 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>045014</t>
+          <t>005036</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>PONTREMOLI</t>
+          <t>CERRO TANARO</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6511,34 +6511,34 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>005087</t>
+          <t>034012</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>PORTACOMARO</t>
+          <t>CORNIGLIO</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>015184</t>
+          <t>015096</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>ROBECCO SUL NAVIGLIO</t>
+          <t>CUGGIONO</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6565,88 +6565,88 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>098050</t>
+          <t>006193</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>SANT'ANGELO LODIGIANO</t>
+          <t>LU E CUCCARO MONFERRATO</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>011031</t>
+          <t>003144</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>VEZZANO LIGURE</t>
+          <t>TERDOBBIATE</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>015202</t>
+          <t>006171</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>SAN ZENONE AL LAMBRO</t>
+          <t>TERRUGGIA</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>098057</t>
+          <t>015243</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6656,24 +6656,24 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>TERRANOVA DEI PASSERINI</t>
+          <t>VITTUONE</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>015247</t>
+          <t>015200</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -6688,19 +6688,19 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>ZIBIDO SAN GIACOMO</t>
+          <t>SANTO STEFANO TICINO</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>006039</t>
+          <t>006173</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>CASALE MONFERRATO</t>
+          <t>TICINETO</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6727,7 +6727,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>006142</t>
+          <t>005116</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -6737,24 +6737,24 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>QUATTORDIO</t>
+          <t>VIGLIANO D'ASTI</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>015191</t>
+          <t>015194</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>SAN COLOMBANO AL LAMBRO</t>
+          <t>SAN GIORGIO SU LEGNANO</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6781,49 +6781,49 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>034033</t>
+          <t>015244</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>LOMBARDIA</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>SAN SECONDO PARMENSE</t>
+          <t>VIZZOLO PREDABISSI</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>034035</t>
+          <t>002082</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>SOLIGNANO</t>
+          <t>MOTTA DE' CONTI</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6835,88 +6835,88 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>098058</t>
+          <t>046020</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>TURANO LODIGIANO</t>
+          <t>MOLAZZANA</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>098059</t>
+          <t>034026</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>VALERA FRATTA</t>
+          <t>PALANZANO</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>015220</t>
+          <t>046009</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>TREZZANO SUL NAVIGLIO</t>
+          <t>CASTELNUOVO DI GARFAGNANA</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>045015</t>
+          <t>045003</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>TRESANA</t>
+          <t>CARRARA</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6943,76 +6943,76 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>003164</t>
+          <t>046025</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>VINZAGLIO</t>
+          <t>PIEVE FOSCIANA</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>098061</t>
+          <t>045005</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ZELO BUON PERSICO</t>
+          <t>COMANO</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>034009</t>
+          <t>045004</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>COLLECCHIO</t>
+          <t>CASOLA IN LUNIGIANA</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7024,103 +7024,103 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>015211</t>
+          <t>034022</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>SETTIMO MILANESE</t>
+          <t>MONCHIO DELLE CORTI</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>015036</t>
+          <t>046019</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>BUCCINASCO</t>
+          <t>MINUCCIANO</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>015012</t>
+          <t>046008</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>BAREGGIO</t>
+          <t>CAREGGINE</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>033039</t>
+          <t>046027</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>ROTTOFRENO</t>
+          <t>SAN ROMANO IN GARFAGNANA</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7132,49 +7132,49 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>018123</t>
+          <t>046031</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>ROBBIO</t>
+          <t>VAGLI SOTTO</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>003149</t>
+          <t>045011</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>TRECATE</t>
+          <t>MONTIGNOSO</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7186,49 +7186,49 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>033046</t>
+          <t>046010</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>VILLANOVA SULL'ARDA</t>
+          <t>CASTIGLIONE DI GARFAGNANA</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>018180</t>
+          <t>046006</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>VILLANTERIO</t>
+          <t>CAMPORGIANO</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7240,22 +7240,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>046014</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>SAN SALVATORE MONFERRATO</t>
+          <t>FOSCIANDORA</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7267,22 +7267,22 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>003131</t>
+          <t>045008</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>ROMENTINO</t>
+          <t>FOSDINOVO</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7294,22 +7294,22 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>034045</t>
+          <t>045010</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>VARANO DE' MELEGARI</t>
+          <t>MASSA</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7321,76 +7321,76 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>005090</t>
+          <t>046023</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>REVIGLIASCO D'ASTI</t>
+          <t>PIAZZA AL SERCHIO</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>002158</t>
+          <t>046035</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>VERCELLI</t>
+          <t>VILLA COLLEMANDINA</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>018176</t>
+          <t>045007</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>VIDIGULFO</t>
+          <t>FIVIZZANO</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -7402,184 +7402,184 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>098019</t>
+          <t>035046</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>EMILIA ROMAGNA</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>RE</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>CODOGNO</t>
+          <t>VENTASSO</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>018048</t>
+          <t>046037</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>TOSCANA</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>CHIGNOLO PO</t>
+          <t>SILLANO GIUNCUGNANO</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>098021</t>
+          <t>009010</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>CORNEGLIANO LAUDENSE</t>
+          <t>BERGEGGI</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>015087</t>
+          <t>004073</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>CORNAREDO</t>
+          <t>CORTEMILIA</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>015093</t>
+          <t>009042</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>CORSICO</t>
+          <t>NOLI</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>015061</t>
+          <t>004164</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>CASSINETTA DI LUGAGNANO</t>
+          <t>PEZZOLO VALLE UZZONE</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>033011</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>CARPANETO PIACENTINO</t>
+          <t>AGLIANO TERME</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -7591,88 +7591,88 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>098018</t>
+          <t>006134</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>CERVIGNANO D'ADDA</t>
+          <t>PONTI</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>098028</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>GRAFFIGNANA</t>
+          <t>ALBISOLA SUPERIORE</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>018027</t>
+          <t>009003</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>CANDIA LOMELLINA</t>
+          <t>ALBISSOLA MARINA</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>005036</t>
+          <t>005030</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>CERRO TANARO</t>
+          <t>CASTELNUOVO CALCEA</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7699,22 +7699,22 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>034012</t>
+          <t>005021</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>CORNIGLIO</t>
+          <t>CASSINASCO</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7726,88 +7726,88 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>098014</t>
+          <t>005015</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>CASTIGLIONE D'ADDA</t>
+          <t>CALOSSO</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>098027</t>
+          <t>009032</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>GALGAGNANO</t>
+          <t>GIUSVALLA</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>015096</t>
+          <t>009036</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>CUGGIONO</t>
+          <t>MALLARE</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>006193</t>
+          <t>005017</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -7817,12 +7817,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>LU E CUCCARO MONFERRATO</t>
+          <t>CANELLI</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -7834,7 +7834,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>003144</t>
+          <t>005011</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -7844,24 +7844,24 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>TERDOBBIATE</t>
+          <t>BUBBIO</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>006171</t>
+          <t>005060</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -7871,12 +7871,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>TERRUGGIA</t>
+          <t>LOAZZOLO</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -7888,76 +7888,76 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>015243</t>
+          <t>005037</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>VITTUONE</t>
+          <t>CESSOLE</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>098062</t>
+          <t>009029</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>CASTELGERUNDO</t>
+          <t>FINALE LIGURE</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>034046</t>
+          <t>005064</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>EMILIA ROMAGNA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>VARSI</t>
+          <t>MOMBALDONE</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -7969,49 +7969,49 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>015200</t>
+          <t>009027</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>SANTO STEFANO TICINO</t>
+          <t>DEGO</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>006173</t>
+          <t>009048</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>TICINETO</t>
+          <t>PIANA CRIXIA</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -8023,22 +8023,22 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>045017</t>
+          <t>005100</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TOSCANA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>ZERI</t>
+          <t>SAN MARZANO OLIVETO</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -8050,7 +8050,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>005116</t>
+          <t>004161</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -8060,93 +8060,93 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>VIGLIANO D'ASTI</t>
+          <t>PERLETTO</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>015194</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>SAN GIORGIO SU LEGNANO</t>
+          <t>SPIGNO MONFERRATO</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>015244</t>
+          <t>005104</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>LOMBARDIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>VIZZOLO PREDABISSI</t>
+          <t>SEROLE</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>002082</t>
+          <t>009044</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>PIEMONTE</t>
+          <t>LIGURIA</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>MOTTA DE' CONTI</t>
+          <t>ORCO FEGLINO</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>011006</t>
+          <t>009056</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -8168,12 +8168,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>BORGHETTO DI VARA</t>
+          <t>SAVONA</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -8185,7 +8185,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>011007</t>
+          <t>009067</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -8195,12 +8195,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>BRUGNATO</t>
+          <t>VEZZI PORTIO</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -8212,22 +8212,22 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>011009</t>
+          <t>005113</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>CARRO</t>
+          <t>VESIME</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -8239,22 +8239,22 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>011025</t>
+          <t>004056</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>ROCCHETTA DI VARA</t>
+          <t>CASTIGLIONE TINELLA</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -8266,22 +8266,22 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>011029</t>
+          <t>006065</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>VARESE LIGURE</t>
+          <t>DENICE</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -8293,7 +8293,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>011028</t>
+          <t>009015</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8303,12 +8303,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>SESTA GODANO</t>
+          <t>CAIRO MONTENOTTE</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -8320,22 +8320,22 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>011010</t>
+          <t>005063</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>CARRODANO</t>
+          <t>MOASCA</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -8347,22 +8347,22 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>011018</t>
+          <t>006093</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>MAISSANA</t>
+          <t>MERANA</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -8374,22 +8374,22 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>011032</t>
+          <t>004213</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>ZIGNAGO</t>
+          <t>SANTO STEFANO BELBO</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -8401,22 +8401,22 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>011017</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>LEVANTO</t>
+          <t>SESSAME</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -8428,22 +8428,22 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>011019</t>
+          <t>005098</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>MONTEROSSO AL MARE</t>
+          <t>SAN GIORGIO SCARAMPI</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -8455,7 +8455,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>011030</t>
+          <t>009005</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -8465,39 +8465,39 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>VERNAZZA</t>
+          <t>ALTARE</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>011005</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>BONASSOLA</t>
+          <t>ROCCAVERANO</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -8509,22 +8509,22 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>011014</t>
+          <t>005081</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>LIGURIA</t>
+          <t>PIEMONTE</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>FRAMURA</t>
+          <t>OLMO GENTILE</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -8536,7 +8536,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>011012</t>
+          <t>009064</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8546,12 +8546,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>DEIVA MARINA</t>
+          <t>VADO LIGURE</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -8563,7 +8563,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>011021</t>
+          <t>009018</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8573,12 +8573,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>PIGNONE</t>
+          <t>CARCARE</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -8590,25 +8590,160 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>011024</t>
+          <t>005068</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
+          <t>PIEMONTE</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>MONASTERO BORMIDA</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>009052</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
           <t>LIGURIA</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>RIOMAGGIORE</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>SV</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>QUILIANO</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>LIGURIA</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>SV</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>SPOTORNO</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>PIEMONTE</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>VINCHIO</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>034018</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>EMILIA ROMAGNA</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>LANGHIRANO</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>034039</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>EMILIA ROMAGNA</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>TIZZANO VAL PARMA</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
         <is>
           <t>II</t>
         </is>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LIM</t>
         </is>
       </c>
     </row>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8749,6 +8749,330 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>035045</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>EMILIA ROMAGNA</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>VILLA MINOZZO</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>036016</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>EMILIA ROMAGNA</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>FRASSINORO</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>036031</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>EMILIA ROMAGNA</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>PIEVEPELAGO</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>036035</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>EMILIA ROMAGNA</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>RIOLUNATO</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>LIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>036014</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>EMILIA ROMAGNA</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>FIUMALBO</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>047023</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>TOSCANA</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>ABETONE CUTIGLIANO</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>046011</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>TOSCANA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>COREGLIA ANTELMINELLI</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>046003</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>TOSCANA</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>BARGA</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>046015</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>TOSCANA</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>GALLICANO</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>046036</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>TOSCANA</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>FABBRICHE DI VERGEMOLI</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>046030</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>TOSCANA</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>STAZZEMA</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>046028</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>TOSCANA</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>SERAVEZZA</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Download/ZoneCEV/ZCEV.xlsx
+++ b/Download/ZoneCEV/ZCEV.xlsx
@@ -8772,7 +8772,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
     </row>
